--- a/api_responses_3000.xlsx
+++ b/api_responses_3000.xlsx
@@ -127,16 +127,16 @@
     <t>non_eligibility</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>date</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>category</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>status</t>
   </si>
   <si>
-    <t>Response Time</t>
+    <t>responseTime</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:D3908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -512,13 +512,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
